--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/106.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/106.xlsx
@@ -479,13 +479,13 @@
         <v>0.14086523725542</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.032198659160823</v>
+        <v>-2.003639656223944</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07989158739013813</v>
+        <v>-0.07967594677051994</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3828288814947898</v>
+        <v>-0.3713322458328096</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1428119036088226</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.040894327796449</v>
+        <v>-2.010477982296435</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03311331312420299</v>
+        <v>-0.03853266095884126</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3656925353211892</v>
+        <v>-0.3534624067486829</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1478362547915361</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.091562003311118</v>
+        <v>-2.059587378881016</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07804391722205158</v>
+        <v>0.06759557829485761</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4391992282859313</v>
+        <v>-0.423561348315809</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1430532729516734</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.252433053584534</v>
+        <v>-2.217333214189089</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2419968969349738</v>
+        <v>0.224001136321143</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5000224751712325</v>
+        <v>-0.481787463650964</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1214711022477454</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.034724959850511</v>
+        <v>-2.010609412893063</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4723294110313886</v>
+        <v>0.4466209567231845</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5569704869798914</v>
+        <v>-0.5357290989379386</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.08672788332310587</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.895479358284646</v>
+        <v>-1.870961649441706</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6602153514836878</v>
+        <v>0.627681950265524</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.5673495690657482</v>
+        <v>-0.5452141381628965</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.0485709900345604</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.517669122617963</v>
+        <v>-1.501171828207611</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9334052582148779</v>
+        <v>0.8919251323112408</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.5985733863749899</v>
+        <v>-0.5728334516843597</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.01421752465930094</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9967333282514086</v>
+        <v>-0.9840553912388922</v>
       </c>
       <c r="F9" t="n">
-        <v>1.154636793751932</v>
+        <v>1.101043016690765</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.5805272571492774</v>
+        <v>-0.5522673178454449</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.01272281783499361</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4178051603892124</v>
+        <v>-0.4005822431639403</v>
       </c>
       <c r="F10" t="n">
-        <v>1.241020537148035</v>
+        <v>1.178185693825712</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.5362847276877578</v>
+        <v>-0.5084434774701913</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.03125540144447751</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2756934982837789</v>
+        <v>0.2910464807929459</v>
       </c>
       <c r="F11" t="n">
-        <v>1.206259898873231</v>
+        <v>1.143196822778319</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4620083393726996</v>
+        <v>-0.4347305880005587</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.04204448507114765</v>
       </c>
       <c r="E12" t="n">
-        <v>1.063617564043599</v>
+        <v>1.077157276525027</v>
       </c>
       <c r="F12" t="n">
-        <v>1.216462690817502</v>
+        <v>1.151243208526408</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3194525755947389</v>
+        <v>-0.2963711591999856</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.04535924058725768</v>
       </c>
       <c r="E13" t="n">
-        <v>1.947717346153133</v>
+        <v>1.954978296359693</v>
       </c>
       <c r="F13" t="n">
-        <v>1.031518592102914</v>
+        <v>0.967599249606014</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1472045151125621</v>
+        <v>-0.1259332207073046</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.03602881297820679</v>
       </c>
       <c r="E14" t="n">
-        <v>2.854207550263169</v>
+        <v>2.852029107799289</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8369178860791456</v>
+        <v>0.7735274140070031</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02926034259557936</v>
+        <v>0.04805413090390957</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.00751851902140751</v>
       </c>
       <c r="E15" t="n">
-        <v>3.876976842940173</v>
+        <v>3.864480705136167</v>
       </c>
       <c r="F15" t="n">
-        <v>0.660079985839256</v>
+        <v>0.5952980808638836</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2181111567692359</v>
+        <v>0.2359809958533626</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.03732116498666695</v>
       </c>
       <c r="E16" t="n">
-        <v>4.779373023315706</v>
+        <v>4.759441219182675</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4327790325704663</v>
+        <v>0.3659965492919207</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4666220176975523</v>
+        <v>0.4796249896586173</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.08937011009918035</v>
       </c>
       <c r="E17" t="n">
-        <v>5.597478905726467</v>
+        <v>5.566894140180473</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2715317917270599</v>
+        <v>0.2037970268801274</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7049914734273285</v>
+        <v>0.7164770909554596</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.1422090526292887</v>
       </c>
       <c r="E18" t="n">
-        <v>6.4324456809646</v>
+        <v>6.387502712994102</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03435859052947229</v>
+        <v>-0.0338231957479096</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8436782982051322</v>
+        <v>0.8553150215689082</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.1971787958875446</v>
       </c>
       <c r="E19" t="n">
-        <v>7.034619750219725</v>
+        <v>6.984942132732354</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2429379320891912</v>
+        <v>-0.310061977517059</v>
       </c>
       <c r="G19" t="n">
-        <v>1.098855130112157</v>
+        <v>1.108850151532417</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.2560206361333461</v>
       </c>
       <c r="E20" t="n">
-        <v>7.602514831051164</v>
+        <v>7.539288056967637</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5155470257646212</v>
+        <v>-0.5837130718507901</v>
       </c>
       <c r="G20" t="n">
-        <v>1.325975071181997</v>
+        <v>1.332771685747774</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3156795001266069</v>
       </c>
       <c r="E21" t="n">
-        <v>7.922667172285482</v>
+        <v>7.862527049698825</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.8422504345817919</v>
+        <v>-0.9045886748713451</v>
       </c>
       <c r="G21" t="n">
-        <v>1.555958153033483</v>
+        <v>1.558766203145884</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.3707135518747692</v>
       </c>
       <c r="E22" t="n">
-        <v>8.136514984124513</v>
+        <v>8.081263764928618</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.071887232226592</v>
+        <v>-1.12808364990483</v>
       </c>
       <c r="G22" t="n">
-        <v>1.800162497645921</v>
+        <v>1.797821931212547</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.4195192924931966</v>
       </c>
       <c r="E23" t="n">
-        <v>8.315098471569927</v>
+        <v>8.258984689895557</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.285917630283695</v>
+        <v>-1.34099649438581</v>
       </c>
       <c r="G23" t="n">
-        <v>1.977256963002583</v>
+        <v>1.968727353384254</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.4657346652961427</v>
       </c>
       <c r="E24" t="n">
-        <v>8.403611862837149</v>
+        <v>8.349994475489163</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.477772459950354</v>
+        <v>-1.527373737510342</v>
       </c>
       <c r="G24" t="n">
-        <v>2.100137487764285</v>
+        <v>2.088277253685284</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.5115240324552103</v>
       </c>
       <c r="E25" t="n">
-        <v>8.418793277262095</v>
+        <v>8.366192706266467</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.629757385274467</v>
+        <v>-1.675070247738471</v>
       </c>
       <c r="G25" t="n">
-        <v>2.195279073551305</v>
+        <v>2.184237329415381</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.5554368806516405</v>
       </c>
       <c r="E26" t="n">
-        <v>8.375329887265618</v>
+        <v>8.32633224603865</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.773747080471932</v>
+        <v>-1.814056136149322</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24268695546576</v>
+        <v>2.229458898770349</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.5926685029969301</v>
       </c>
       <c r="E27" t="n">
-        <v>8.315340870514607</v>
+        <v>8.263099175878637</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.849751741782179</v>
+        <v>-1.886619991660405</v>
       </c>
       <c r="G27" t="n">
-        <v>2.317777111666531</v>
+        <v>2.299461825171076</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.6201530654116233</v>
       </c>
       <c r="E28" t="n">
-        <v>8.208003784575748</v>
+        <v>8.157019731217698</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.879097754279709</v>
+        <v>-1.913262626317101</v>
       </c>
       <c r="G28" t="n">
-        <v>2.315082390930864</v>
+        <v>2.295056145650555</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.6367996822825465</v>
       </c>
       <c r="E29" t="n">
-        <v>8.036048491650133</v>
+        <v>7.987814249696996</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.843739775748371</v>
+        <v>-1.873417906280495</v>
       </c>
       <c r="G29" t="n">
-        <v>2.274022528132615</v>
+        <v>2.252935393964549</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.643546736466228</v>
       </c>
       <c r="E30" t="n">
-        <v>7.802303504098739</v>
+        <v>7.755703093993511</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.822977676528854</v>
+        <v>-1.853284627699938</v>
       </c>
       <c r="G30" t="n">
-        <v>2.177939678911057</v>
+        <v>2.155462685858883</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6424648950458537</v>
       </c>
       <c r="E31" t="n">
-        <v>7.582329609839604</v>
+        <v>7.533679826838442</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.782934630082965</v>
+        <v>-1.8105444994897</v>
       </c>
       <c r="G31" t="n">
-        <v>2.132028689180958</v>
+        <v>2.107769906483472</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6352542906946742</v>
       </c>
       <c r="E32" t="n">
-        <v>7.401331577062117</v>
+        <v>7.349845411604371</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.70224883590597</v>
+        <v>-1.72956200270834</v>
       </c>
       <c r="G32" t="n">
-        <v>2.050288302192692</v>
+        <v>2.028039541913107</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6237361478410819</v>
       </c>
       <c r="E33" t="n">
-        <v>7.092932436606552</v>
+        <v>7.039851789778929</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.666262036735672</v>
+        <v>-1.691633650951918</v>
       </c>
       <c r="G33" t="n">
-        <v>1.929927782044192</v>
+        <v>1.910117177383502</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6083474204358409</v>
       </c>
       <c r="E34" t="n">
-        <v>6.788340848405413</v>
+        <v>6.737766040018901</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.590827170347337</v>
+        <v>-1.619252381658906</v>
       </c>
       <c r="G34" t="n">
-        <v>1.842638977653341</v>
+        <v>1.823969536855594</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5896288394336893</v>
       </c>
       <c r="E35" t="n">
-        <v>6.460162583671583</v>
+        <v>6.40514431930564</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.613445825120428</v>
+        <v>-1.639516303826531</v>
       </c>
       <c r="G35" t="n">
-        <v>1.702511925379548</v>
+        <v>1.686406561730399</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5671192819591856</v>
       </c>
       <c r="E36" t="n">
-        <v>6.085201322614455</v>
+        <v>6.029597523135387</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.629923444291764</v>
+        <v>-1.653458965203013</v>
       </c>
       <c r="G36" t="n">
-        <v>1.610948085055244</v>
+        <v>1.596141287181168</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5410141205485365</v>
       </c>
       <c r="E37" t="n">
-        <v>5.68739632204989</v>
+        <v>5.631600492238023</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.605999140657554</v>
+        <v>-1.629694424509615</v>
       </c>
       <c r="G37" t="n">
-        <v>1.478160683944076</v>
+        <v>1.46562834370028</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5107229887740397</v>
       </c>
       <c r="E38" t="n">
-        <v>5.34539816943104</v>
+        <v>5.289953345883223</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.620010271865812</v>
+        <v>-1.639990870591603</v>
       </c>
       <c r="G38" t="n">
-        <v>1.373685164767742</v>
+        <v>1.360520068837183</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4764918641033327</v>
       </c>
       <c r="E39" t="n">
-        <v>4.982637130583113</v>
+        <v>4.924733689167825</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.638877252063283</v>
+        <v>-1.655303715613177</v>
       </c>
       <c r="G39" t="n">
-        <v>1.286514411810989</v>
+        <v>1.273920684821462</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4391137032656992</v>
       </c>
       <c r="E40" t="n">
-        <v>4.609737834574888</v>
+        <v>4.553421004433871</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.666326571519646</v>
+        <v>-1.68182121574973</v>
       </c>
       <c r="G40" t="n">
-        <v>1.227756278012834</v>
+        <v>1.214570719833698</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3997982937057102</v>
       </c>
       <c r="E41" t="n">
-        <v>4.298577864580562</v>
+        <v>4.240905803976105</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.740236213379441</v>
+        <v>-1.752909428334593</v>
       </c>
       <c r="G41" t="n">
-        <v>1.174809422810522</v>
+        <v>1.160806948707431</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3603514566207248</v>
       </c>
       <c r="E42" t="n">
-        <v>3.881900374751601</v>
+        <v>3.825690577910832</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.748297552309182</v>
+        <v>-1.756534394370949</v>
       </c>
       <c r="G42" t="n">
-        <v>1.096925382669442</v>
+        <v>1.082985869331204</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3217848458197387</v>
       </c>
       <c r="E43" t="n">
-        <v>3.583135805337518</v>
+        <v>3.529760816934211</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.760438748801335</v>
+        <v>-1.764790911671732</v>
       </c>
       <c r="G43" t="n">
-        <v>1.014187067558272</v>
+        <v>1.000721333975544</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2852192141223853</v>
       </c>
       <c r="E44" t="n">
-        <v>3.288277951382502</v>
+        <v>3.236942891760402</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.792532998684656</v>
+        <v>-1.793593887572413</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9182002335031132</v>
+        <v>0.9051075424521341</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2511066148165489</v>
       </c>
       <c r="E45" t="n">
-        <v>3.034405981327036</v>
+        <v>2.982202063149977</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.784193845380005</v>
+        <v>-1.783342301035381</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8628718873702728</v>
+        <v>0.849488002781853</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2200036750546246</v>
       </c>
       <c r="E46" t="n">
-        <v>2.829369528529044</v>
+        <v>2.773471387474293</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.736602590237918</v>
+        <v>-1.734717702340161</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7982898828233055</v>
+        <v>0.7850996025868058</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1917516189716176</v>
       </c>
       <c r="E47" t="n">
-        <v>2.563539735209056</v>
+        <v>2.51352842566797</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.713988657522191</v>
+        <v>-1.709665614005539</v>
       </c>
       <c r="G47" t="n">
-        <v>0.712438157890202</v>
+        <v>0.7008093046220326</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1663381711192386</v>
       </c>
       <c r="E48" t="n">
-        <v>2.368322013689739</v>
+        <v>2.318589305533122</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.635341218107281</v>
+        <v>-1.629281244490273</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6187950383066603</v>
+        <v>0.6055087429037611</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1433922789140641</v>
       </c>
       <c r="E49" t="n">
-        <v>2.190931632738272</v>
+        <v>2.141682148451895</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.590532828771654</v>
+        <v>-1.585026122875783</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5837951491254182</v>
+        <v>0.5704254307090901</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1224021473902117</v>
       </c>
       <c r="E50" t="n">
-        <v>2.094626846820611</v>
+        <v>2.044703682350317</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.518764639926388</v>
+        <v>-1.511791735219026</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5166349012577605</v>
+        <v>0.5030999108336958</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1031467429265934</v>
       </c>
       <c r="E51" t="n">
-        <v>1.926784465858955</v>
+        <v>1.875772080156721</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.507216848642966</v>
+        <v>-1.498532198141189</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4502238864918418</v>
+        <v>0.4368793523814546</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.0844818956969255</v>
       </c>
       <c r="E52" t="n">
-        <v>1.781214455463703</v>
+        <v>1.729781806656082</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.454366008607052</v>
+        <v>-1.448591719460561</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3881241100991658</v>
+        <v>0.3764984048692389</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.06622058441148622</v>
       </c>
       <c r="E53" t="n">
-        <v>1.697667094524184</v>
+        <v>1.648568716073452</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.402219542127921</v>
+        <v>-1.397261381895824</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3540277078935503</v>
+        <v>0.3426192173023629</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.04804015761539716</v>
       </c>
       <c r="E54" t="n">
-        <v>1.593994325099714</v>
+        <v>1.542193355817709</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.307155870287406</v>
+        <v>-1.304588645100564</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3137800389618917</v>
+        <v>0.3017151823971219</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.02975321323372309</v>
       </c>
       <c r="E55" t="n">
-        <v>1.464099971133496</v>
+        <v>1.413111195718082</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.27488611727206</v>
+        <v>-1.2718852498173</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2722117679874618</v>
+        <v>0.2610645645704103</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.01097283584708251</v>
       </c>
       <c r="E56" t="n">
-        <v>1.419155429143877</v>
+        <v>1.36789749645872</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.252254870345998</v>
+        <v>-1.249585333916272</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2528340185851291</v>
+        <v>0.2412759961774181</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.008264558023249328</v>
       </c>
       <c r="E57" t="n">
-        <v>1.366507637574611</v>
+        <v>1.311583814355945</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.227869379109247</v>
+        <v>-1.225402891146169</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2022293038353119</v>
+        <v>0.1926325092527416</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.0276426852432613</v>
       </c>
       <c r="E58" t="n">
-        <v>1.274227618550116</v>
+        <v>1.22154362454106</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.240299408110159</v>
+        <v>-1.236741337886459</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1910049734813167</v>
+        <v>0.1806274654145813</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.04696824477118536</v>
       </c>
       <c r="E59" t="n">
-        <v>1.219092876769195</v>
+        <v>1.168604639434354</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.259506376437831</v>
+        <v>-1.253845416668073</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1844759421661615</v>
+        <v>0.1726928350241045</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.06631763296584513</v>
       </c>
       <c r="E60" t="n">
-        <v>1.156412287320759</v>
+        <v>1.105881551469643</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.256112791212306</v>
+        <v>-1.250323548884162</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1473527011902848</v>
+        <v>0.1362102198305972</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.08636149113676475</v>
       </c>
       <c r="E61" t="n">
-        <v>1.138726608473825</v>
+        <v>1.086669074075047</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.261237010461701</v>
+        <v>-1.254160220492333</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1361960536585055</v>
+        <v>0.1255021677483886</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1075789881515623</v>
       </c>
       <c r="E62" t="n">
-        <v>1.072890110687181</v>
+        <v>1.022497888518739</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.25726733423778</v>
+        <v>-1.252093533386065</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1301817265960156</v>
+        <v>0.1203441070878863</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1307991280979504</v>
       </c>
       <c r="E63" t="n">
-        <v>1.022105957757536</v>
+        <v>0.9728076788783979</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.320542115904507</v>
+        <v>-1.312548459796982</v>
       </c>
       <c r="G63" t="n">
-        <v>0.09855810842996345</v>
+        <v>0.08825772730017174</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1561431192064289</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9578057026332811</v>
+        <v>0.908839541788738</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.338550468671309</v>
+        <v>-1.331082534950297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0744346913769091</v>
+        <v>0.06484419287082401</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1839896650984872</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9164971448138659</v>
+        <v>0.8677324584168492</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.39262196053579</v>
+        <v>-1.38481639971326</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02560547019591916</v>
+        <v>0.01813989750359</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2139023487249187</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8624185698633381</v>
+        <v>0.8133705600244874</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.450338093675644</v>
+        <v>-1.440045582641459</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.008242236988530827</v>
+        <v>-0.01477599036104998</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2452674340837306</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7982851607659416</v>
+        <v>0.7537892142258924</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.536376339874622</v>
+        <v>-1.523282074804521</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.04018538103620698</v>
+        <v>-0.04686551818700711</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2771531242370304</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7317875749483514</v>
+        <v>0.6926432934207246</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.58647422046738</v>
+        <v>-1.574055996609878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06489433320238518</v>
+        <v>-0.07095430681939283</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3088014279653603</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6407982516033226</v>
+        <v>0.6059463202194828</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.613090883808574</v>
+        <v>-1.602384405745487</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07165789336661424</v>
+        <v>-0.07686474861987691</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3396387790209511</v>
       </c>
       <c r="E70" t="n">
-        <v>0.530561822443029</v>
+        <v>0.5005578699527952</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.698696274749194</v>
+        <v>-1.685991579411616</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.104279439655571</v>
+        <v>-0.1084584604226243</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3681397599756755</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3841119353589703</v>
+        <v>0.3610037606391549</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.763849648237194</v>
+        <v>-1.751054446800141</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1297218847322753</v>
+        <v>-0.1325928956095278</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3929716274803897</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2650247966796029</v>
+        <v>0.245987035407471</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.877515078053241</v>
+        <v>-1.860497570323299</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1537241023129895</v>
+        <v>-0.1559938378859051</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4126342238208869</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1589689623054839</v>
+        <v>0.1454764703976943</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.974923251374934</v>
+        <v>-1.954545999830575</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1814614672685502</v>
+        <v>-0.1836304656177026</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.426374810880338</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02040333700002039</v>
+        <v>0.01054053318595028</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.012774476194412</v>
+        <v>-1.990502105628008</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2137619136567616</v>
+        <v>-0.2142813399667909</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4333409765170758</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.05905472226235963</v>
+        <v>-0.06569078687776334</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.103704773822392</v>
+        <v>-2.078306401281084</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2497707490947575</v>
+        <v>-0.2484674612623205</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4334001692468832</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1515047353519555</v>
+        <v>-0.1536548454716523</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.120409051747196</v>
+        <v>-2.098325563475347</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2657281549465038</v>
+        <v>-0.2632506488495766</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4268542106792073</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.2492670629759413</v>
+        <v>-0.2453383112491747</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.142112414401251</v>
+        <v>-2.120169013831198</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2851609950180821</v>
+        <v>-0.2816650985496733</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4141826787687342</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.3003282432709355</v>
+        <v>-0.2915499386314416</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.096841263443961</v>
+        <v>-2.075181973325303</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2643493141962444</v>
+        <v>-0.2617789409711604</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3963740205567562</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3366377163610998</v>
+        <v>-0.3237197414325851</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.119442604006717</v>
+        <v>-2.096228970005775</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2755311460339645</v>
+        <v>-0.2699292119812554</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.373993752928622</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3532341739760943</v>
+        <v>-0.3370642755429723</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.068575815073204</v>
+        <v>-2.049013118424118</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2478976663404096</v>
+        <v>-0.242094257840174</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.347925376108577</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3492298693315053</v>
+        <v>-0.3283772640125138</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.044400455389146</v>
+        <v>-2.02756002481035</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2486075489641163</v>
+        <v>-0.2415464991859614</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.318895918593944</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.2817894460602561</v>
+        <v>-0.2573087266666664</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.981812733068867</v>
+        <v>-1.965643621645306</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2618434757551337</v>
+        <v>-0.2552798160193099</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2883868238803855</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.1243875339301873</v>
+        <v>-0.09733958934975626</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.916996199672826</v>
+        <v>-1.900376918780573</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2131685084480313</v>
+        <v>-0.2071825137297248</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.25649033217006</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01939124270502405</v>
+        <v>0.04935269667898264</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.79055366963962</v>
+        <v>-1.776589759005001</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1616839170094071</v>
+        <v>-0.1577331290149424</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2230131386652232</v>
       </c>
       <c r="E85" t="n">
-        <v>0.238852006730615</v>
+        <v>0.263858448510719</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.601595822165716</v>
+        <v>-1.592162725571761</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1358857436112888</v>
+        <v>-0.1311479460561737</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1880369828988595</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5149617189318177</v>
+        <v>0.5347927858410851</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.429584651561294</v>
+        <v>-1.420952730700082</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05192126760462491</v>
+        <v>-0.04666246972035931</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1524020048393543</v>
       </c>
       <c r="E87" t="n">
-        <v>0.810400385942593</v>
+        <v>0.8263672359090671</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.189088695998641</v>
+        <v>-1.185485766229984</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01237111742402298</v>
+        <v>0.01578516489812417</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1173060176079565</v>
       </c>
       <c r="E88" t="n">
-        <v>1.06093228742266</v>
+        <v>1.07251392011719</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.016056773994056</v>
+        <v>-1.011384298232475</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06539037750591535</v>
+        <v>0.06757511604628071</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.08365733501387755</v>
       </c>
       <c r="E89" t="n">
-        <v>1.323623486614774</v>
+        <v>1.330026596400225</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7405436150398267</v>
+        <v>-0.7447131916921522</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1224957912267043</v>
+        <v>0.1232418762902008</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.05287227733810191</v>
       </c>
       <c r="E90" t="n">
-        <v>1.557429860911899</v>
+        <v>1.556598778815853</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4595528695434705</v>
+        <v>-0.4676889743814738</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1560145284148025</v>
+        <v>0.155828794158489</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02620315239976101</v>
       </c>
       <c r="E91" t="n">
-        <v>1.748273383293123</v>
+        <v>1.743829927313691</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.1665051375779511</v>
+        <v>-0.1785101814161114</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1284361393904931</v>
+        <v>0.1261223312821811</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.005359657339029992</v>
       </c>
       <c r="E92" t="n">
-        <v>1.811967641055676</v>
+        <v>1.804497346305983</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04029421663589718</v>
+        <v>0.02527177814220342</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1523911363975683</v>
+        <v>0.1479429583607725</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.007892838017460126</v>
       </c>
       <c r="E93" t="n">
-        <v>1.805633788111562</v>
+        <v>1.797883317958278</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2522295952425496</v>
+        <v>0.2365712530238503</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1019501196363664</v>
+        <v>0.1000628707099269</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.01214587908793903</v>
       </c>
       <c r="E94" t="n">
-        <v>1.74030727252022</v>
+        <v>1.731047318029608</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4321604430557951</v>
+        <v>0.4155828736702563</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1118963464638655</v>
+        <v>0.1101554813157069</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.007177497944034342</v>
       </c>
       <c r="E95" t="n">
-        <v>1.708101267279286</v>
+        <v>1.697646632275607</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5256461607272068</v>
+        <v>0.5099421719539899</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04969268480918359</v>
+        <v>0.04808875932457819</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.005361041290996308</v>
       </c>
       <c r="E96" t="n">
-        <v>1.604197117043985</v>
+        <v>1.591471172448269</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5884463756288617</v>
+        <v>0.5736978164622742</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02647410047055669</v>
+        <v>-0.0274153639050945</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02247458273624246</v>
       </c>
       <c r="E97" t="n">
-        <v>1.558429363053925</v>
+        <v>1.546266917303635</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5907743499092655</v>
+        <v>0.5766302140852575</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05027799164198699</v>
+        <v>-0.04947838992836624</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.04198036710869202</v>
       </c>
       <c r="E98" t="n">
-        <v>1.445084246129063</v>
+        <v>1.430146804667919</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6068450851377455</v>
+        <v>0.5929402002201751</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1153967367093177</v>
+        <v>-0.1147718511181614</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.06030721650626406</v>
       </c>
       <c r="E99" t="n">
-        <v>1.355624869369938</v>
+        <v>1.343172804101328</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6163631787642507</v>
+        <v>0.6008984408974715</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1176680463013546</v>
+        <v>-0.1163883687557372</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.07859615053104693</v>
       </c>
       <c r="E100" t="n">
-        <v>1.26163546557971</v>
+        <v>1.246454051154765</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6240302259041064</v>
+        <v>0.6084143822016822</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1543851903439358</v>
+        <v>-0.1543489879041459</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.09722539525691123</v>
       </c>
       <c r="E101" t="n">
-        <v>1.161316930902732</v>
+        <v>1.147309734742277</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5565457300974607</v>
+        <v>0.5424299266176361</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1932052239325746</v>
+        <v>-0.1915210234727829</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1244846190770907</v>
       </c>
       <c r="E102" t="n">
-        <v>1.067993337200814</v>
+        <v>1.056342447664947</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5145634920941288</v>
+        <v>0.5026953879195215</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2407075469943081</v>
+        <v>-0.2372824813863578</v>
       </c>
     </row>
   </sheetData>
